--- a/data/trans_orig/P14C21-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C21-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F653F99E-AFD0-4E41-8892-AFFFA4E819DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D942154D-F0E5-4E00-9204-5AA42A307583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F63A99E-064E-49CC-8EA7-62819105A5D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7BD15C2F-D9DD-4AE6-9159-D8219F06C801}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="184">
   <si>
     <t>Población según el tiempo de diagnóstico del migrañas en 2015 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>82,01%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>83,98%</t>
   </si>
   <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>14,59%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>17,54%</t>
+    <t>17,62%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>16,9%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -152,19 +152,19 @@
     <t>59,9%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>29,8%</t>
@@ -173,19 +173,19 @@
     <t>34,04%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>33,45%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
   </si>
   <si>
     <t>35,16%</t>
@@ -194,13 +194,13 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>33,02%</t>
+    <t>33,13%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>33,18%</t>
+    <t>30,57%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -212,13 +212,13 @@
     <t>83,89%</t>
   </si>
   <si>
-    <t>56,85%</t>
+    <t>56,77%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>43,15%</t>
+    <t>43,23%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -230,25 +230,25 @@
     <t>85,69%</t>
   </si>
   <si>
-    <t>41,54%</t>
+    <t>39,1%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -257,337 +257,334 @@
     <t>20,75%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1002,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22BA824-A3E6-47F3-B6D7-D07E959905C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE6FEED-D06A-4582-B5DD-17D6585C9615}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1999,7 +1996,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2008,13 +2005,13 @@
         <v>1809</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2023,13 +2020,13 @@
         <v>1809</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,7 +2047,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2065,7 +2062,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2080,7 +2077,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,7 +2133,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2148,10 +2145,10 @@
         <v>4146</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>11</v>
@@ -2163,10 +2160,10 @@
         <v>13756</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>11</v>
@@ -2178,13 +2175,13 @@
         <v>17902</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2196,13 @@
         <v>1613</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2214,13 +2211,13 @@
         <v>1018</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2229,13 +2226,13 @@
         <v>2631</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,7 +2253,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2265,13 +2262,13 @@
         <v>1451</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2280,13 +2277,13 @@
         <v>1451</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,7 +2339,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2354,13 +2351,13 @@
         <v>7266</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -2369,13 +2366,13 @@
         <v>26342</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -2384,13 +2381,13 @@
         <v>33608</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2402,13 @@
         <v>2300</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2420,13 +2417,13 @@
         <v>7499</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2435,13 +2432,13 @@
         <v>9799</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2453,13 @@
         <v>5002</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2471,13 +2468,13 @@
         <v>2902</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2486,13 +2483,13 @@
         <v>7904</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2545,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2560,10 +2557,10 @@
         <v>7710</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>11</v>
@@ -2575,10 +2572,10 @@
         <v>30078</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>11</v>
@@ -2590,10 +2587,10 @@
         <v>37790</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>11</v>
@@ -2611,13 +2608,13 @@
         <v>1059</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2626,13 +2623,13 @@
         <v>1001</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -2641,13 +2638,13 @@
         <v>2059</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,7 +2665,7 @@
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2683,7 +2680,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2698,7 +2695,7 @@
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2763,13 @@
         <v>34081</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -2781,13 +2778,13 @@
         <v>153437</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M36" s="7">
         <v>172</v>
@@ -2796,13 +2793,13 @@
         <v>187518</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2814,13 @@
         <v>5837</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H37" s="7">
         <v>29</v>
@@ -2832,13 +2829,13 @@
         <v>29339</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -2847,13 +2844,13 @@
         <v>35176</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2865,13 @@
         <v>7023</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -2883,13 +2880,13 @@
         <v>6321</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M38" s="7">
         <v>12</v>
@@ -2898,13 +2895,13 @@
         <v>13344</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,7 +2957,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C21-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C21-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D942154D-F0E5-4E00-9204-5AA42A307583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4100A4CF-A5A1-48B6-B176-DF9817C9F254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7BD15C2F-D9DD-4AE6-9159-D8219F06C801}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F0294B2-5F22-4A3E-8D36-17C2A01664FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="184">
-  <si>
-    <t>Población según el tiempo de diagnóstico del migrañas en 2015 (Tasa respuesta: 3,32%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="183">
+  <si>
+    <t>Población según el tiempo de diagnóstico del migrañas en 2016 (Tasa respuesta: 3,32%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>82,01%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>83,98%</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>14,59%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>17,62%</t>
+    <t>18,6%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>16,9%</t>
+    <t>18,75%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -152,19 +152,19 @@
     <t>59,9%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>29,8%</t>
@@ -173,19 +173,19 @@
     <t>34,04%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>33,45%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
   </si>
   <si>
     <t>35,16%</t>
@@ -194,127 +194,130 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>33,13%</t>
+    <t>24,67%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>29,73%</t>
+    <t>29,45%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>23,28%</t>
+    <t>26,32%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -329,52 +332,52 @@
     <t>71,99%</t>
   </si>
   <si>
-    <t>14,07%</t>
+    <t>15,12%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>58,03%</t>
+    <t>55,65%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>85,93%</t>
+    <t>84,88%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>31,58%</t>
+    <t>26,36%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>37,07%</t>
+    <t>36,14%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>34,3%</t>
+    <t>34,08%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>31,88%</t>
+    <t>37,48%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -383,79 +386,79 @@
     <t>49,88%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>65,5%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>48,76%</t>
+    <t>46,9%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>34,33%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -464,37 +467,37 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>42,32%</t>
+    <t>51,74%</t>
   </si>
   <si>
     <t>96,78%</t>
   </si>
   <si>
-    <t>82,71%</t>
+    <t>84,36%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>83,4%</t>
+    <t>83,72%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>57,68%</t>
+    <t>48,26%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>17,29%</t>
+    <t>15,64%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>16,6%</t>
+    <t>16,28%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -509,82 +512,76 @@
     <t>72,6%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>28,54%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -999,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE6FEED-D06A-4582-B5DD-17D6585C9615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F38DFF-533B-42F7-BB46-5518DA504D01}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1996,7 +1993,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2005,13 +2002,13 @@
         <v>1809</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2020,13 +2017,13 @@
         <v>1809</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2062,7 +2059,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2077,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,7 +2130,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2145,10 +2142,10 @@
         <v>4146</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>11</v>
@@ -2160,10 +2157,10 @@
         <v>13756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>11</v>
@@ -2175,13 +2172,13 @@
         <v>17902</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2193,13 @@
         <v>1613</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2211,13 +2208,13 @@
         <v>1018</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2226,13 +2223,13 @@
         <v>2631</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2262,13 +2259,13 @@
         <v>1451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2277,13 +2274,13 @@
         <v>1451</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,7 +2336,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2351,13 +2348,13 @@
         <v>7266</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -2366,13 +2363,13 @@
         <v>26342</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -2381,13 +2378,13 @@
         <v>33608</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2399,13 @@
         <v>2300</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2417,13 +2414,13 @@
         <v>7499</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2432,13 +2429,13 @@
         <v>9799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2450,13 @@
         <v>5002</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2468,13 +2465,13 @@
         <v>2902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2483,13 +2480,13 @@
         <v>7904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,7 +2542,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2557,10 +2554,10 @@
         <v>7710</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>11</v>
@@ -2572,10 +2569,10 @@
         <v>30078</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>11</v>
@@ -2587,10 +2584,10 @@
         <v>37790</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>11</v>
@@ -2608,13 +2605,13 @@
         <v>1059</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2623,13 +2620,13 @@
         <v>1001</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -2638,13 +2635,13 @@
         <v>2059</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,7 +2662,7 @@
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2680,7 +2677,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2695,7 +2692,7 @@
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2760,13 @@
         <v>34081</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -2778,13 +2775,13 @@
         <v>153437</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M36" s="7">
         <v>172</v>
@@ -2793,13 +2790,13 @@
         <v>187518</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2811,13 @@
         <v>5837</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H37" s="7">
         <v>29</v>
@@ -2829,13 +2826,13 @@
         <v>29339</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -2844,10 +2841,10 @@
         <v>35176</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>173</v>
@@ -2868,10 +2865,10 @@
         <v>174</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -2880,13 +2877,13 @@
         <v>6321</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M38" s="7">
         <v>12</v>
@@ -2895,13 +2892,13 @@
         <v>13344</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,7 +2954,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
